--- a/rubrica Miniproyecto API html5 2022.xlsx
+++ b/rubrica Miniproyecto API html5 2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Navarro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Rivera\Documents\6toSemestre\Tec_Web\Programas\MiniProyectoAnimalitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784D6E7-5FF3-4E64-9DEB-17B84FB6C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD21D7-8E23-41D2-B9DE-6929C5E32FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1050" windowWidth="20730" windowHeight="11040" xr2:uid="{3C9F6DF2-5504-4AE4-8AF5-B11992F35EBA}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{3C9F6DF2-5504-4AE4-8AF5-B11992F35EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -806,14 +806,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584835</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>178015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>150919</xdr:colOff>
+      <xdr:colOff>122344</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>94956</xdr:rowOff>
     </xdr:to>
@@ -838,8 +838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="632460" y="14267395"/>
-          <a:ext cx="6978439" cy="1379981"/>
+          <a:off x="584835" y="15751390"/>
+          <a:ext cx="6786034" cy="1440941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2304915E-8794-4605-88EB-EF1B997C9093}">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
